--- a/excel_files/Excel-файл шаблон.xlsx
+++ b/excel_files/Excel-файл шаблон.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="2" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Заявки" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Ноутбуки" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -278,16 +278,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="1" hidden="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="1" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -667,7 +664,7 @@
   <dimension ref="A1:C242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -678,13 +675,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="20" t="inlineStr">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>Заявки</t>
         </is>
       </c>
-      <c r="B1" s="21" t="n"/>
-      <c r="C1" s="22" t="n"/>
+      <c r="B1" s="20" t="n"/>
+      <c r="C1" s="21" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="12" t="inlineStr">
@@ -706,77 +703,46 @@
     <row r="3">
       <c r="A3" s="10" t="inlineStr">
         <is>
-          <t>iPhone 15 Pro Max 256</t>
+          <t>Apple Vision</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>gderpov</t>
+          <t>yura_derp@mail.ru</t>
         </is>
       </c>
       <c r="C3" s="11" t="n">
-        <v>45345.67815301839</v>
+        <v>45354.71895828282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Playstation 5</t>
+          <t>Роутер мегафон</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>norman_osborn@rambler.ru</t>
-        </is>
-      </c>
-      <c r="C4" s="19" t="n">
-        <v>45346.6066767503</v>
+          <t>yuri.malahov@ya.ru</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="n">
+        <v>45354.88500381685</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Xbox Series X</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>89027839103</t>
-        </is>
-      </c>
-      <c r="C5" s="19" t="n">
-        <v>45346.98472907942</v>
-      </c>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="17" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Кабель Apple</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>dima_frolov@nytva.ru</t>
-        </is>
-      </c>
-      <c r="C6" s="19" t="n">
-        <v>45347.64066186756</v>
-      </c>
+      <c r="A6" s="3" t="n"/>
+      <c r="C6" s="17" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Полтиник</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>8474774</t>
-        </is>
-      </c>
-      <c r="C7" s="19" t="n">
-        <v>45347.64810848456</v>
-      </c>
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="17" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n"/>
@@ -1503,8 +1469,8 @@
   </sheetPr>
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1516,22 +1482,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="23" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>На продажу</t>
         </is>
       </c>
-      <c r="B1" s="21" t="n"/>
-      <c r="C1" s="21" t="n"/>
-      <c r="D1" s="24" t="n"/>
+      <c r="B1" s="20" t="n"/>
+      <c r="C1" s="20" t="n"/>
+      <c r="D1" s="23" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="23" t="inlineStr">
+      <c r="A2" s="22" t="inlineStr">
         <is>
           <t>Название товара</t>
         </is>
       </c>
-      <c r="B2" s="23" t="inlineStr">
+      <c r="B2" s="22" t="inlineStr">
         <is>
           <t>Цена</t>
         </is>
@@ -1541,7 +1507,7 @@
           <t>Контакты</t>
         </is>
       </c>
-      <c r="D2" s="23" t="inlineStr">
+      <c r="D2" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">Дата подачи объявления </t>
         </is>
@@ -1550,92 +1516,56 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Xbox 360 белый</t>
+          <t>Redmi Note 12S 256 ГБ</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>kenny67@mail.ru</t>
+          <t>jimmy_neutron@hotmail.com</t>
         </is>
       </c>
       <c r="D3" s="8" t="n">
-        <v>45345.67788764356</v>
+        <v>45354.71797330482</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Модем Yota</t>
+          <t>Джойстик Xbox 360</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>john567@hotmail.com</t>
-        </is>
-      </c>
-      <c r="D4" s="19" t="n">
-        <v>45346.60592443695</v>
+          <t>yami_high@rambler.ru</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="n">
+        <v>45354.88464662156</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Диван мягкий</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>genry_ford@inbox.ru</t>
-        </is>
-      </c>
-      <c r="D5" s="19" t="n">
-        <v>45346.98450363804</v>
-      </c>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="17" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Камера Sony</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>5200</v>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>evgeny_al@mail.ru</t>
-        </is>
-      </c>
-      <c r="D6" s="19" t="n">
-        <v>45347.64035251942</v>
-      </c>
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="17" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Колбаса</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>8992244224</t>
-        </is>
-      </c>
-      <c r="D7" s="19" t="n">
-        <v>45347.6445646808</v>
-      </c>
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="17" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -3119,7 +3049,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="26.77734375" customWidth="1" min="1" max="1"/>
-    <col width="22.21875" customWidth="1" style="18" min="2" max="2"/>
+    <col width="22.21875" customWidth="1" style="16" min="2" max="2"/>
     <col width="26.6640625" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -7597,7 +7527,7 @@
   </sheetPr>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
